--- a/archive/damo_data_2.xlsx
+++ b/archive/damo_data_2.xlsx
@@ -99,10 +99,10 @@
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
@@ -444,42 +444,44 @@
       <c r="A2" s="2">
         <v>-12.0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5">
+      <c r="B2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4">
         <v>1.0</v>
       </c>
       <c r="S2" s="6">
         <v>1.0</v>
       </c>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="V2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="W2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="X2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="Y2" s="5"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="V2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="W2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="X2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="Y2" s="4"/>
       <c r="Z2" s="7">
         <v>1.0</v>
       </c>
@@ -488,42 +490,44 @@
       <c r="A3" s="2">
         <v>-11.0</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
       <c r="R3" s="6">
         <v>1.0</v>
       </c>
       <c r="S3" s="6"/>
-      <c r="T3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="U3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="V3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="W3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="X3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="Y3" s="5">
+      <c r="T3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="U3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="V3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="W3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="X3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="Y3" s="4">
         <v>1.0</v>
       </c>
       <c r="Z3" s="7"/>
@@ -532,40 +536,42 @@
       <c r="A4" s="2">
         <v>-10.0</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
       <c r="R4" s="6">
         <v>1.0</v>
       </c>
-      <c r="S4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="T4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="X4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="Y4" s="5">
+      <c r="S4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="T4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="X4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="Y4" s="4">
         <v>1.0</v>
       </c>
       <c r="Z4" s="7">
@@ -671,40 +677,42 @@
       <c r="A2" s="2">
         <v>-12.0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4">
         <v>1.0</v>
       </c>
       <c r="S2" s="6"/>
-      <c r="T2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="U2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="V2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="Y2" s="5">
+      <c r="T2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="U2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="V2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="Y2" s="4">
         <v>1.0</v>
       </c>
       <c r="Z2" s="7">
@@ -715,42 +723,44 @@
       <c r="A3" s="2">
         <v>-11.0</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6">
         <v>1.0</v>
       </c>
-      <c r="T3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="U3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="V3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="W3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="X3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="Y3" s="5">
+      <c r="T3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="U3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="V3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="W3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="X3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="Y3" s="4">
         <v>1.0</v>
       </c>
       <c r="Z3" s="7"/>
@@ -759,42 +769,44 @@
       <c r="A4" s="2">
         <v>-10.0</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
       <c r="R4" s="6">
         <v>1.0</v>
       </c>
-      <c r="S4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="T4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="W4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="X4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="Y4" s="5"/>
+      <c r="S4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="T4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="W4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="X4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="Y4" s="4"/>
       <c r="Z4" s="7">
         <v>1.0</v>
       </c>
@@ -898,19 +910,21 @@
       <c r="A2" s="2">
         <v>-12.0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
@@ -942,18 +956,20 @@
       <c r="A3" s="2">
         <v>-11.0</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
@@ -986,19 +1002,21 @@
       <c r="A4" s="2">
         <v>-10.0</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
@@ -1125,19 +1143,21 @@
       <c r="A2" s="2">
         <v>-12.0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
@@ -1169,18 +1189,20 @@
       <c r="A3" s="2">
         <v>-11.0</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M3" s="5"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
@@ -1213,19 +1235,21 @@
       <c r="A4" s="2">
         <v>-10.0</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N4" s="5"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
@@ -1352,19 +1376,21 @@
       <c r="A2" s="2">
         <v>-12.0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="4">
+        <v>1.0</v>
+      </c>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
@@ -1396,20 +1422,22 @@
       <c r="A3" s="2">
         <v>-11.0</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
       <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
+      <c r="O3" s="4">
+        <v>1.0</v>
+      </c>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="12">
@@ -1440,22 +1468,26 @@
       <c r="A4" s="2">
         <v>-10.0</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
       <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
+      <c r="P4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>1.0</v>
+      </c>
       <c r="R4" s="10"/>
       <c r="S4" s="9"/>
       <c r="T4" s="13">
@@ -1467,9 +1499,7 @@
       <c r="V4" s="9">
         <v>1.0</v>
       </c>
-      <c r="W4" s="9">
-        <v>1.0</v>
-      </c>
+      <c r="W4" s="9"/>
       <c r="X4" s="9">
         <v>1.0</v>
       </c>
